--- a/data/trans_orig/P44A$analisis-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44A$analisis-Provincia-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4195</v>
+        <v>3278</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1442084395922099</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6031795736085682</v>
+        <v>0.471294730855931</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5165</v>
+        <v>4304</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05564145387243002</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2865510609519445</v>
+        <v>0.2387748902227559</v>
       </c>
     </row>
     <row r="5">
@@ -806,7 +806,7 @@
         <v>4999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>6955</v>
@@ -815,7 +815,7 @@
         <v>0.7188334332877411</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2900312961083232</v>
+        <v>0.2893242782786961</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -827,19 +827,19 @@
         <v>8137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4283</v>
+        <v>4561</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11070</v>
+        <v>10233</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7350533962755327</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3869319742684035</v>
+        <v>0.4119707123338563</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>1</v>
+        <v>0.9244074797112584</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -848,19 +848,19 @@
         <v>13137</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8648</v>
+        <v>8237</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16172</v>
+        <v>16136</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7287950779347351</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4798029423301808</v>
+        <v>0.4570036360817062</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8971995105991158</v>
+        <v>0.89522223887095</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4175</v>
+        <v>4369</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.136958127120049</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6003345009418478</v>
+        <v>0.6282481557930097</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -898,19 +898,19 @@
         <v>2933</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6787</v>
+        <v>6509</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2649466037244673</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0</v>
+        <v>0.07559252028874158</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6130680257315947</v>
+        <v>0.5880292876661437</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -919,19 +919,19 @@
         <v>3886</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8342</v>
+        <v>8429</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2155634681928349</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05351086718967858</v>
+        <v>0.05507433459119218</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4627843871519305</v>
+        <v>0.4676061476789086</v>
       </c>
     </row>
     <row r="7">
@@ -999,19 +999,19 @@
         <v>4067</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9639</v>
+        <v>9067</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.168663842985162</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04093131994140851</v>
+        <v>0.0411082049322546</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3997598818896704</v>
+        <v>0.3760291022519348</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1020,19 +1020,19 @@
         <v>3003</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7217</v>
+        <v>7208</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1470892798588006</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04629258736688403</v>
+        <v>0.04708275957206765</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3535471864969137</v>
+        <v>0.3531028100477319</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1041,19 +1041,19 @@
         <v>7070</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3014</v>
+        <v>3022</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12697</v>
+        <v>12578</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1587730510437613</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06769157303333523</v>
+        <v>0.06787643432724384</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2851621315633217</v>
+        <v>0.2824769715510689</v>
       </c>
     </row>
     <row r="9">
@@ -1070,19 +1070,19 @@
         <v>17758</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11386</v>
+        <v>11077</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21923</v>
+        <v>21941</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7364549875157538</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4721787528679437</v>
+        <v>0.4593965167287981</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9091976913581145</v>
+        <v>0.9099390453590079</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -1091,19 +1091,19 @@
         <v>9433</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5153</v>
+        <v>4971</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13818</v>
+        <v>13849</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4620875406345977</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2524236304448144</v>
+        <v>0.2435039960978049</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6769014452162294</v>
+        <v>0.6784334764469856</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>23</v>
@@ -1112,19 +1112,19 @@
         <v>27191</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>19727</v>
+        <v>19083</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>33549</v>
+        <v>33823</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.61067207748876</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4430528437066032</v>
+        <v>0.4285755408596943</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7534754082291012</v>
+        <v>0.7596339756281588</v>
       </c>
     </row>
     <row r="10">
@@ -1141,19 +1141,19 @@
         <v>6354</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2100</v>
+        <v>2255</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12480</v>
+        <v>12747</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2635204193186373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0871078898200069</v>
+        <v>0.09350779837896524</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5175543759140718</v>
+        <v>0.5286378910265518</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1162,19 +1162,19 @@
         <v>8935</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5430</v>
+        <v>4533</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13718</v>
+        <v>13553</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4377233618274832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2659946843502148</v>
+        <v>0.2220702129868811</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6720154898598576</v>
+        <v>0.6639427119127949</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1183,19 +1183,19 @@
         <v>15289</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8847</v>
+        <v>8642</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23008</v>
+        <v>23321</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3433832211674257</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1986905869236604</v>
+        <v>0.1940863582494535</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5167400311132603</v>
+        <v>0.5237711339994788</v>
       </c>
     </row>
     <row r="11">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7137</v>
+        <v>6854</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08472000549331739</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2959664889314907</v>
+        <v>0.2842412283562264</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6660</v>
+        <v>6605</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04588038020399426</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1495680861649641</v>
+        <v>0.1483354992008927</v>
       </c>
     </row>
     <row r="12">
@@ -1279,7 +1279,7 @@
         <v>7113</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>9219</v>
@@ -1288,7 +1288,7 @@
         <v>0.7715189534549617</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3242470262378835</v>
+        <v>0.3238903591144349</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -1300,19 +1300,19 @@
         <v>6177</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2064</v>
+        <v>2244</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9971</v>
+        <v>10332</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4640310854600726</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1550411957803118</v>
+        <v>0.1685803796572255</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.749021626882695</v>
+        <v>0.7761205280186807</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -1321,19 +1321,19 @@
         <v>13290</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7542</v>
+        <v>7494</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18231</v>
+        <v>18163</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5898460477486092</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3347490150018387</v>
+        <v>0.3326225941112534</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8091497206087137</v>
+        <v>0.8061275415739123</v>
       </c>
     </row>
     <row r="13">
@@ -1350,19 +1350,19 @@
         <v>4172</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7450</v>
+        <v>7576</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4524929785902292</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1272109375462888</v>
+        <v>0.1262607137303784</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8081480905326486</v>
+        <v>0.8217952257484956</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1371,19 +1371,19 @@
         <v>8403</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3938</v>
+        <v>3745</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11305</v>
+        <v>11271</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6312142729069785</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2958172618392222</v>
+        <v>0.2813022523791022</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8492096404377687</v>
+        <v>0.8466438392663104</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1392,19 +1392,19 @@
         <v>12574</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7655</v>
+        <v>7278</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17320</v>
+        <v>17307</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.558086792947366</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3397641753216588</v>
+        <v>0.3230322222461958</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7687209194326905</v>
+        <v>0.7681460191148772</v>
       </c>
     </row>
     <row r="14">
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4649</v>
+        <v>4767</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1109164891434356</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5042722787108285</v>
+        <v>0.5170518851427375</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1442,19 +1442,19 @@
         <v>5134</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2259</v>
+        <v>1169</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9251</v>
+        <v>9510</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3856996525159374</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1697055345317941</v>
+        <v>0.08784788969470275</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6948993919589895</v>
+        <v>0.7143721634184342</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1463,19 +1463,19 @@
         <v>6157</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2224</v>
+        <v>2321</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11739</v>
+        <v>12009</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2732664903145242</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09870844924681309</v>
+        <v>0.1030322536149473</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5210169088694462</v>
+        <v>0.5329966357234849</v>
       </c>
     </row>
     <row r="15">
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5767</v>
+        <v>5758</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2201290426050657</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6255884922112473</v>
+        <v>0.6245750701263967</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5358</v>
+        <v>5321</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1462563861142128</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4024944949125858</v>
+        <v>0.3997224958037233</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -1534,19 +1534,19 @@
         <v>3976</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1004</v>
+        <v>1029</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8381</v>
+        <v>8961</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1764828973296249</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04456894909006292</v>
+        <v>0.0456570890360394</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3719645435974028</v>
+        <v>0.3976997583241427</v>
       </c>
     </row>
     <row r="16">
@@ -1567,19 +1567,19 @@
         <v>5325</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1762</v>
+        <v>1771</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8572</v>
+        <v>8587</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.487642456910389</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1613889448772284</v>
+        <v>0.1622389372748006</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7850243428170423</v>
+        <v>0.7864360424751237</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6258</v>
+        <v>6468</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1571106292113476</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4573960056576319</v>
+        <v>0.4727423522546029</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1609,19 +1609,19 @@
         <v>7474</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3210</v>
+        <v>3117</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12528</v>
+        <v>12789</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3038124917298227</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1305011753103583</v>
+        <v>0.1266928272536058</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5092659655872557</v>
+        <v>0.5198468318177158</v>
       </c>
     </row>
     <row r="17">
@@ -1638,19 +1638,19 @@
         <v>6589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2335</v>
+        <v>3324</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9881</v>
+        <v>9816</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6034798583223426</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2138260821793947</v>
+        <v>0.3043898010879788</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9049700473755041</v>
+        <v>0.8990080030998004</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1659,19 +1659,19 @@
         <v>8965</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4727</v>
+        <v>4769</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12639</v>
+        <v>12019</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.655217585784666</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3454738390074129</v>
+        <v>0.3485402481519156</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9237858126934059</v>
+        <v>0.8784356086931525</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1680,19 +1680,19 @@
         <v>15554</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9828</v>
+        <v>10101</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20084</v>
+        <v>20025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6322545294459372</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3994885541396997</v>
+        <v>0.410592419549048</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8163717863228693</v>
+        <v>0.8139985761076686</v>
       </c>
     </row>
     <row r="18">
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4944</v>
+        <v>4903</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0992828814854405</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4527770897241069</v>
+        <v>0.4489913619679365</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1730,19 +1730,19 @@
         <v>3585</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8125</v>
+        <v>7887</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2620001740541923</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07247435021697299</v>
+        <v>0.07136724828615455</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5938484018540496</v>
+        <v>0.5764509311040475</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -1751,19 +1751,19 @@
         <v>4669</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1530</v>
+        <v>1466</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10158</v>
+        <v>10044</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1897804121935141</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06217967880929345</v>
+        <v>0.05960710443624326</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4128936191699676</v>
+        <v>0.408291717501431</v>
       </c>
     </row>
     <row r="19">
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5077</v>
+        <v>5766</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.139584101838859</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3710933331770314</v>
+        <v>0.4214645204333813</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6194</v>
+        <v>5644</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07763167849651684</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2517850305056868</v>
+        <v>0.2294294761796476</v>
       </c>
     </row>
     <row r="20">
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4379</v>
+        <v>5334</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3461749247004035</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6953504230927697</v>
+        <v>0.8470064971245342</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1868,19 +1868,19 @@
         <v>3240</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5493</v>
+        <v>5492</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4934852569042311</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1581682962764036</v>
+        <v>0.1585110327522823</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.836624321186083</v>
+        <v>0.836454333186155</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1889,19 +1889,19 @@
         <v>5420</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9704</v>
+        <v>8686</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4213630976205164</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1670906968232065</v>
+        <v>0.1665893101100155</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7543823465123062</v>
+        <v>0.6751940567415371</v>
       </c>
     </row>
     <row r="21">
@@ -1931,7 +1931,7 @@
         <v>5511</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2220</v>
+        <v>2204</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>6566</v>
@@ -1940,7 +1940,7 @@
         <v>0.8393207709470395</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3381050729042714</v>
+        <v>0.335727772348351</v>
       </c>
       <c r="P21" s="6" t="n">
         <v>1</v>
@@ -1952,7 +1952,7 @@
         <v>11809</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7517</v>
+        <v>8523</v>
       </c>
       <c r="T21" s="5" t="n">
         <v>12864</v>
@@ -1961,7 +1961,7 @@
         <v>0.917988253247653</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5843196337758302</v>
+        <v>0.6625647285900006</v>
       </c>
       <c r="W21" s="6" t="n">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4382</v>
+        <v>5442</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3248335690522945</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6673531277408052</v>
+        <v>0.828743268694731</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6261</v>
+        <v>6275</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1657972132353032</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4866865161048582</v>
+        <v>0.487761040289538</v>
       </c>
     </row>
     <row r="23">
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4417</v>
+        <v>4426</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1686516878519366</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6726456990114588</v>
+        <v>0.6740658124327319</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4605</v>
+        <v>4423</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08608094272664218</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3579434167484088</v>
+        <v>0.3438265197073983</v>
       </c>
     </row>
     <row r="24">
@@ -2111,19 +2111,19 @@
         <v>2986</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0</v>
+        <v>913</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6115</v>
+        <v>7068</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.322933605659127</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0</v>
+        <v>0.09868824302686741</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6612557682093175</v>
+        <v>0.7642937716053508</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2132,7 +2132,7 @@
         <v>4269</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2111</v>
+        <v>1107</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>6292</v>
@@ -2141,7 +2141,7 @@
         <v>0.6785548315890836</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.335512855671708</v>
+        <v>0.1758959691245082</v>
       </c>
       <c r="P24" s="6" t="n">
         <v>1</v>
@@ -2153,19 +2153,19 @@
         <v>7256</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3056</v>
+        <v>3114</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11371</v>
+        <v>11339</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4669194311865493</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1966444224084169</v>
+        <v>0.200372558877691</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7317346220413278</v>
+        <v>0.7296684306942323</v>
       </c>
     </row>
     <row r="25">
@@ -2182,19 +2182,19 @@
         <v>6134</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3015</v>
+        <v>2061</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8230</v>
+        <v>8216</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6632968756420337</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3260662829660386</v>
+        <v>0.2228910815775329</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8899721934347964</v>
+        <v>0.8883571816365602</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2203,7 +2203,7 @@
         <v>4167</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1045</v>
+        <v>1981</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>6292</v>
@@ -2212,7 +2212,7 @@
         <v>0.6622371147959437</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1660926076871803</v>
+        <v>0.3147752899714365</v>
       </c>
       <c r="P25" s="6" t="n">
         <v>1</v>
@@ -2224,19 +2224,19 @@
         <v>10301</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6114</v>
+        <v>6119</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13445</v>
+        <v>13460</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6628677939979702</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3934431178081484</v>
+        <v>0.3937629354936663</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8651591557363573</v>
+        <v>0.8661281233438687</v>
       </c>
     </row>
     <row r="26">
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4649</v>
+        <v>5131</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1120763125384626</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5026788401548391</v>
+        <v>0.5548537612050478</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5201</v>
+        <v>5190</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3230412031904088</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.826573165809724</v>
+        <v>0.8248828590929735</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -2295,19 +2295,19 @@
         <v>3069</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7172</v>
+        <v>7227</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1974929067206269</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0623234488491773</v>
+        <v>0.06271064043310791</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.461504883187599</v>
+        <v>0.4650552143923665</v>
       </c>
     </row>
     <row r="27">
@@ -2324,19 +2324,19 @@
         <v>3114</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6703</v>
+        <v>7195</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3367031243579663</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1104953673861575</v>
+        <v>0.1099964029357241</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7247932814019392</v>
+        <v>0.7780406412742673</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -2358,19 +2358,19 @@
         <v>3114</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7356</v>
+        <v>7209</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2003769610600172</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06537738153594748</v>
+        <v>0.06547059913278824</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4733492335233412</v>
+        <v>0.463880790489589</v>
       </c>
     </row>
     <row r="28">
@@ -2391,19 +2391,19 @@
         <v>10572</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5817</v>
+        <v>5533</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14554</v>
+        <v>13605</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6731681377279191</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.370371230693232</v>
+        <v>0.3522864395847642</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9267236017626822</v>
+        <v>0.8662785399776395</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -2412,19 +2412,19 @@
         <v>10672</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5812</v>
+        <v>6115</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15823</v>
+        <v>15634</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5187830737397505</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2825060669784293</v>
+        <v>0.29725771824</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7691390952923857</v>
+        <v>0.7599478500644509</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>19</v>
@@ -2433,19 +2433,19 @@
         <v>21245</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14487</v>
+        <v>14000</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>27492</v>
+        <v>27763</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5856200753086204</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3993319669381933</v>
+        <v>0.3859225669286243</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.757826611881442</v>
+        <v>0.7653169341702321</v>
       </c>
     </row>
     <row r="29">
@@ -2462,19 +2462,19 @@
         <v>10287</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5807</v>
+        <v>6363</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13726</v>
+        <v>13789</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6549976238040638</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3697866082347697</v>
+        <v>0.4051881866146749</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8739580854340505</v>
+        <v>0.877972329504723</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -2483,19 +2483,19 @@
         <v>14026</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8619</v>
+        <v>8633</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18031</v>
+        <v>17932</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6817899649587493</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4189687592528243</v>
+        <v>0.4196342720543796</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8764831114834137</v>
+        <v>0.8716477252006745</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>21</v>
@@ -2504,19 +2504,19 @@
         <v>24313</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>17667</v>
+        <v>17625</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29978</v>
+        <v>29745</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6701909170875987</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4869902947403931</v>
+        <v>0.4858536105798844</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8263558208540661</v>
+        <v>0.8199542693980046</v>
       </c>
     </row>
     <row r="30">
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5272</v>
+        <v>5550</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0680420485539113</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.335708759263807</v>
+        <v>0.3533738380153864</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -2554,19 +2554,19 @@
         <v>7159</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3240</v>
+        <v>3118</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12761</v>
+        <v>12758</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3479839290684184</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1575108138190829</v>
+        <v>0.151584279621782</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6203228941747588</v>
+        <v>0.6201806883359278</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -2575,19 +2575,19 @@
         <v>8227</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3974</v>
+        <v>3273</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>15486</v>
+        <v>14327</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2267903665319906</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1095421725630927</v>
+        <v>0.09022570909602637</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4268800916132261</v>
+        <v>0.3949457201940187</v>
       </c>
     </row>
     <row r="31">
@@ -2604,19 +2604,19 @@
         <v>3058</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>911</v>
+        <v>118</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7773</v>
+        <v>7250</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1947035188161354</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05799407001663325</v>
+        <v>0.007494253140148574</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4949415311001658</v>
+        <v>0.4616369182737107</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6536</v>
+        <v>6709</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1026460860975654</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3176941896013895</v>
+        <v>0.3261247937620358</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -2646,19 +2646,19 @@
         <v>5169</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1997</v>
+        <v>1899</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10772</v>
+        <v>10702</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1424999593680311</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05504764081785702</v>
+        <v>0.05234547087138879</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2969283615436016</v>
+        <v>0.2949991717061904</v>
       </c>
     </row>
     <row r="32">
@@ -2679,19 +2679,19 @@
         <v>7825</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3449</v>
+        <v>3313</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14311</v>
+        <v>13514</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2907768491456076</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1281661691443704</v>
+        <v>0.1231004829205053</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5318337732473585</v>
+        <v>0.5022165970339044</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -2700,19 +2700,19 @@
         <v>4261</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8591</v>
+        <v>8550</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2831909300016197</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07131147655932947</v>
+        <v>0.07127980616001886</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5710339983643213</v>
+        <v>0.5682632103882276</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -2721,19 +2721,19 @@
         <v>12085</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6762</v>
+        <v>6591</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>19960</v>
+        <v>19335</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2880565394221577</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1611839258587837</v>
+        <v>0.1570925510568197</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4757631188130168</v>
+        <v>0.4608569609594443</v>
       </c>
     </row>
     <row r="33">
@@ -2750,19 +2750,19 @@
         <v>10853</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5677</v>
+        <v>5733</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>17156</v>
+        <v>17054</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4033159945781099</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.210974236885325</v>
+        <v>0.2130625449688625</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6375479572398802</v>
+        <v>0.6337533750793313</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>7</v>
@@ -2771,19 +2771,19 @@
         <v>7489</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3234</v>
+        <v>4210</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>11835</v>
+        <v>11812</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4977408881087412</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2149770560528553</v>
+        <v>0.2798130497248624</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.786612501789443</v>
+        <v>0.7850934456445096</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>16</v>
@@ -2792,19 +2792,19 @@
         <v>18341</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>11930</v>
+        <v>11648</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>26043</v>
+        <v>25021</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4371767504247728</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2843512261002559</v>
+        <v>0.2776285418524616</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6207418601958303</v>
+        <v>0.5963908796854113</v>
       </c>
     </row>
     <row r="34">
@@ -2821,19 +2821,19 @@
         <v>6374</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2365</v>
+        <v>2908</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>12161</v>
+        <v>12663</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2368647700527257</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08790682618284071</v>
+        <v>0.108070815997422</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4519446698436531</v>
+        <v>0.4705870652348437</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -2842,19 +2842,19 @@
         <v>5372</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2115</v>
+        <v>2108</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9671</v>
+        <v>9611</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3570544858951176</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1405482033406724</v>
+        <v>0.1401163692673064</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6428061525419615</v>
+        <v>0.6388081006080428</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>11</v>
@@ -2863,19 +2863,19 @@
         <v>11746</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6168</v>
+        <v>6315</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>18239</v>
+        <v>18342</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2799647881861729</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1470244082260256</v>
+        <v>0.1505171769231448</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4347451884005892</v>
+        <v>0.4372016689195712</v>
       </c>
     </row>
     <row r="35">
@@ -2892,19 +2892,19 @@
         <v>9403</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4317</v>
+        <v>4276</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>15210</v>
+        <v>15241</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.349441190855024</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1604203676222077</v>
+        <v>0.1589037674392657</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5652413717527226</v>
+        <v>0.5663852989512869</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6418</v>
+        <v>6319</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1379863040054785</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4265580385535323</v>
+        <v>0.420024376455752</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -2934,19 +2934,19 @@
         <v>11479</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6041</v>
+        <v>6405</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>19344</v>
+        <v>19209</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2736134930046314</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1439882088324118</v>
+        <v>0.1526638835973678</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4610876743469841</v>
+        <v>0.4578610981519031</v>
       </c>
     </row>
     <row r="36">
@@ -2967,19 +2967,19 @@
         <v>41070</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>30783</v>
+        <v>30955</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>52257</v>
+        <v>52783</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3755323822530451</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2814655459626043</v>
+        <v>0.2830395218135471</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4778163836278409</v>
+        <v>0.4826284455048975</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>31</v>
@@ -2988,19 +2988,19 @@
         <v>33771</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>23142</v>
+        <v>25176</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>43857</v>
+        <v>44416</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3157660353698978</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2163826580787245</v>
+        <v>0.2354014365920429</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.410063196192091</v>
+        <v>0.4152939978097556</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>69</v>
@@ -3009,19 +3009,19 @@
         <v>74842</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>60346</v>
+        <v>60311</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>90360</v>
+        <v>90409</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3459828250594279</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.278966699221934</v>
+        <v>0.2788090849800882</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4177179280495245</v>
+        <v>0.4179451930885836</v>
       </c>
     </row>
     <row r="37">
@@ -3038,19 +3038,19 @@
         <v>67090</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>55250</v>
+        <v>54863</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>77898</v>
+        <v>76676</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6134476704769855</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5051888680355084</v>
+        <v>0.501643472450912</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7122665810086291</v>
+        <v>0.70109128309333</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>61</v>
@@ -3059,19 +3059,19 @@
         <v>66129</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>54255</v>
+        <v>56479</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>76687</v>
+        <v>77299</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6183072103378344</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5072840622761006</v>
+        <v>0.5280863229691877</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7170285641097613</v>
+        <v>0.722748308415596</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>118</v>
@@ -3080,19 +3080,19 @@
         <v>133220</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>119069</v>
+        <v>117633</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>147821</v>
+        <v>147738</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6158503144152803</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.550433936125643</v>
+        <v>0.5437987943811161</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6833501931408523</v>
+        <v>0.6829659587101463</v>
       </c>
     </row>
     <row r="38">
@@ -3109,19 +3109,19 @@
         <v>17892</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>10851</v>
+        <v>10652</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>28527</v>
+        <v>27145</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1636001922329219</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09921729763617632</v>
+        <v>0.09740131407150063</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.260840426262801</v>
+        <v>0.2482006372035832</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>33</v>
@@ -3130,19 +3130,19 @@
         <v>37283</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>28130</v>
+        <v>27404</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>49883</v>
+        <v>47242</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3485983603345983</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2630144275260097</v>
+        <v>0.2562301120616553</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4664131157006827</v>
+        <v>0.4417136915463675</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>49</v>
@@ -3151,19 +3151,19 @@
         <v>55176</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>42559</v>
+        <v>42604</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>69475</v>
+        <v>68923</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2550666149628069</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1967439282811159</v>
+        <v>0.1969485642965454</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3211729366833092</v>
+        <v>0.3186196956740068</v>
       </c>
     </row>
     <row r="39">
@@ -3180,19 +3180,19 @@
         <v>19647</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>12915</v>
+        <v>11880</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>30203</v>
+        <v>29388</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1796449615522855</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1180859352093026</v>
+        <v>0.1086303365816594</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2761650696482835</v>
+        <v>0.2687090128865383</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>9</v>
@@ -3201,19 +3201,19 @@
         <v>9152</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>4031</v>
+        <v>4111</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>16699</v>
+        <v>16987</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.08556876449571599</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03769291518248413</v>
+        <v>0.03844152127638911</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1561383880379678</v>
+        <v>0.158832619243896</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>27</v>
@@ -3222,19 +3222,19 @@
         <v>28799</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>20064</v>
+        <v>20282</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>41728</v>
+        <v>41737</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1331319971424602</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.09275409541641207</v>
+        <v>0.093762127756435</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1929018547174938</v>
+        <v>0.1929437434639666</v>
       </c>
     </row>
     <row r="40">
@@ -3499,19 +3499,19 @@
         <v>3865</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8575</v>
+        <v>9208</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1653779192657075</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04188135567989552</v>
+        <v>0.04229718999040993</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3669126686976205</v>
+        <v>0.3940122921547133</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -3520,19 +3520,19 @@
         <v>3884</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1022</v>
+        <v>1040</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8636</v>
+        <v>8826</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2460349812692983</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06475629288348969</v>
+        <v>0.06589014282653442</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5470563022514259</v>
+        <v>0.5590987884052416</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3541,19 +3541,19 @@
         <v>7749</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3481</v>
+        <v>3567</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14166</v>
+        <v>14714</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1978947088542304</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08890329320772289</v>
+        <v>0.09110754596873842</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3617758638711804</v>
+        <v>0.37576674924737</v>
       </c>
     </row>
     <row r="5">
@@ -3570,19 +3570,19 @@
         <v>7482</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3607</v>
+        <v>3066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13120</v>
+        <v>12418</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3201343155418245</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1543223030968712</v>
+        <v>0.1311718155490863</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5613785111917995</v>
+        <v>0.5313507867145413</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -3591,19 +3591,19 @@
         <v>5875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2132</v>
+        <v>2171</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10317</v>
+        <v>10931</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3721614431052861</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1350620226553376</v>
+        <v>0.1375571790533051</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6535626635454744</v>
+        <v>0.6924529826482367</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -3612,19 +3612,19 @@
         <v>13357</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8172</v>
+        <v>7554</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20489</v>
+        <v>20301</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3411089843166555</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2087008966741319</v>
+        <v>0.1929051544467089</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5232469048765377</v>
+        <v>0.5184634984133295</v>
       </c>
     </row>
     <row r="6">
@@ -3641,19 +3641,19 @@
         <v>13162</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7715</v>
+        <v>8070</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17876</v>
+        <v>17997</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5631730685482702</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3300948656629353</v>
+        <v>0.3452940804415723</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7648733975087696</v>
+        <v>0.7700653945820174</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -3662,19 +3662,19 @@
         <v>9911</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5469</v>
+        <v>4855</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13654</v>
+        <v>13615</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6278385568947139</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3464373364545257</v>
+        <v>0.3075470173517638</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8649379773446624</v>
+        <v>0.8624428209466949</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -3683,19 +3683,19 @@
         <v>23073</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16643</v>
+        <v>15779</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28995</v>
+        <v>28781</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5892428760265884</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4250436912011877</v>
+        <v>0.4029764045309661</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7404800837163934</v>
+        <v>0.7350208658001524</v>
       </c>
     </row>
     <row r="7">
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4345</v>
+        <v>4453</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06424336964950068</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.275253329000292</v>
+        <v>0.2821015161445272</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5330</v>
+        <v>5793</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02589963087494452</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1361089621426615</v>
+        <v>0.1479463452251824</v>
       </c>
     </row>
     <row r="8">
@@ -3779,19 +3779,19 @@
         <v>2883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>738</v>
+        <v>814</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6257</v>
+        <v>6284</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3093262951488918</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07918621336196277</v>
+        <v>0.08735685194225717</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6714729503337359</v>
+        <v>0.6743354964998085</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4410</v>
+        <v>4424</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1746482646214668</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7732094097754215</v>
+        <v>0.7756531108048712</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -3821,19 +3821,19 @@
         <v>3879</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8492</v>
+        <v>7955</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2581936430750182</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06309446557428791</v>
+        <v>0.06381120066117495</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5652797766650022</v>
+        <v>0.5295036760623274</v>
       </c>
     </row>
     <row r="9">
@@ -3850,7 +3850,7 @@
         <v>6719</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3049</v>
+        <v>2611</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>9319</v>
@@ -3859,7 +3859,7 @@
         <v>0.7209901592184044</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3271920038334291</v>
+        <v>0.2802065445147216</v>
       </c>
       <c r="I9" s="6" t="n">
         <v>1</v>
@@ -3871,7 +3871,7 @@
         <v>3426</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>5704</v>
@@ -3880,7 +3880,7 @@
         <v>0.6006566332725387</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1775239278767877</v>
+        <v>0.1794328416902975</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>1</v>
@@ -3892,19 +3892,19 @@
         <v>10145</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5558</v>
+        <v>6183</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13186</v>
+        <v>13827</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6753036260034756</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3699875889483349</v>
+        <v>0.4115952029190484</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8777408657162136</v>
+        <v>0.9204140529910232</v>
       </c>
     </row>
     <row r="10">
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6325</v>
+        <v>6897</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2976054426013655</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6787712349605624</v>
+        <v>0.740145094831567</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4610</v>
+        <v>4313</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2049048162862121</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8082569381619834</v>
+        <v>0.7562139223566173</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -3963,19 +3963,19 @@
         <v>3942</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1083</v>
+        <v>1120</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8222</v>
+        <v>8923</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.26241017835641</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07208296894293925</v>
+        <v>0.07457595251151122</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5473239262228944</v>
+        <v>0.5939528509636183</v>
       </c>
     </row>
     <row r="11">
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3988</v>
+        <v>3912</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09278347180100527</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4279217607972019</v>
+        <v>0.4197729808069383</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4375</v>
+        <v>4491</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1944385504412491</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7670783983962255</v>
+        <v>0.787265216952576</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5897</v>
+        <v>6070</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1313784360078466</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3925259296269477</v>
+        <v>0.4040261507401287</v>
       </c>
     </row>
     <row r="12">
@@ -4067,19 +4067,19 @@
         <v>11291</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7011</v>
+        <v>6722</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15837</v>
+        <v>15813</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5405620539357942</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3356403316853595</v>
+        <v>0.3218176660734479</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7582047544251574</v>
+        <v>0.7570906751459908</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -4088,19 +4088,19 @@
         <v>14051</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8313</v>
+        <v>8636</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17986</v>
+        <v>17989</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7042488434663735</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4166561487722976</v>
+        <v>0.4328269019851333</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.90147948241784</v>
+        <v>0.90161779137616</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -4109,19 +4109,19 @@
         <v>25343</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18570</v>
+        <v>17905</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31811</v>
+        <v>31240</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6205322794933941</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4547075255606843</v>
+        <v>0.4384092814297204</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7789175742726792</v>
+        <v>0.7649288313224394</v>
       </c>
     </row>
     <row r="13">
@@ -4138,19 +4138,19 @@
         <v>7195</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3407</v>
+        <v>3413</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11363</v>
+        <v>11676</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3444839189594857</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1631275183463056</v>
+        <v>0.1633816150395938</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5440341168253333</v>
+        <v>0.5590108398651312</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -4159,19 +4159,19 @@
         <v>4235</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1015</v>
+        <v>1029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9940</v>
+        <v>10718</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2122750586150311</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05088101449956631</v>
+        <v>0.05157331136268374</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4982161142574035</v>
+        <v>0.5371767434290919</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -4180,19 +4180,19 @@
         <v>11431</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6101</v>
+        <v>6447</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17967</v>
+        <v>18248</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2798924365754776</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1493851795717027</v>
+        <v>0.1578720719638605</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4399462298918729</v>
+        <v>0.4468089058289858</v>
       </c>
     </row>
     <row r="14">
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6467</v>
+        <v>6580</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1000146138931326</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3096340203574545</v>
+        <v>0.3150489157227953</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -4230,19 +4230,19 @@
         <v>5384</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1665</v>
+        <v>2001</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10891</v>
+        <v>11268</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2698557099590119</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08344778126647476</v>
+        <v>0.1002970598185661</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5458658096380735</v>
+        <v>0.5647516305988997</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -4251,19 +4251,19 @@
         <v>7473</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3231</v>
+        <v>2587</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14943</v>
+        <v>13270</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1829915651809516</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07911268901037784</v>
+        <v>0.06333694847112174</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3658887509109381</v>
+        <v>0.3249247056213754</v>
       </c>
     </row>
     <row r="15">
@@ -4280,19 +4280,19 @@
         <v>4902</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1853</v>
+        <v>1892</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9474</v>
+        <v>9617</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.234694340172819</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08873229749452909</v>
+        <v>0.09056716197331301</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4535976578174762</v>
+        <v>0.460415360919476</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4581</v>
+        <v>4376</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04874205469843815</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2296098478225869</v>
+        <v>0.2193112352694192</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -4322,19 +4322,19 @@
         <v>5875</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2740</v>
+        <v>2097</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11364</v>
+        <v>11588</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1438461644893478</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06709211245981193</v>
+        <v>0.05134853049670382</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2782632029160692</v>
+        <v>0.2837496855706023</v>
       </c>
     </row>
     <row r="16">
@@ -4355,19 +4355,19 @@
         <v>7809</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4032</v>
+        <v>3826</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13348</v>
+        <v>13009</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3000526672043021</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1549396949694394</v>
+        <v>0.1470026030442325</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.512874186607308</v>
+        <v>0.4998589392714482</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -4376,19 +4376,19 @@
         <v>5802</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2218</v>
+        <v>2227</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10736</v>
+        <v>11016</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2841393702024994</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1086110754031456</v>
+        <v>0.1090737601676018</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5257122187869411</v>
+        <v>0.5394395983516229</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -4397,19 +4397,19 @@
         <v>13611</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8102</v>
+        <v>7416</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20239</v>
+        <v>20308</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2930559347111014</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1744475441777032</v>
+        <v>0.1596724185249841</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4357494194972673</v>
+        <v>0.4372287102216368</v>
       </c>
     </row>
     <row r="17">
@@ -4426,19 +4426,19 @@
         <v>15740</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10074</v>
+        <v>10595</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20590</v>
+        <v>20319</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6047980975114591</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3870824358126886</v>
+        <v>0.4071128806187922</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7911691795519966</v>
+        <v>0.7807681721212023</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -4447,19 +4447,19 @@
         <v>17001</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12326</v>
+        <v>11942</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19392</v>
+        <v>19365</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8325359294701247</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6035898541861685</v>
+        <v>0.5847761574617745</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9495957392386908</v>
+        <v>0.9482899819361885</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -4468,19 +4468,19 @@
         <v>32741</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25954</v>
+        <v>25945</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39047</v>
+        <v>38496</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.704929496341994</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5588009510343297</v>
+        <v>0.5586140199882564</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8406892555534278</v>
+        <v>0.8288404778294131</v>
       </c>
     </row>
     <row r="18">
@@ -4497,19 +4497,19 @@
         <v>3625</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8546</v>
+        <v>8158</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1392899215616825</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03840421778880544</v>
+        <v>0.03776698076688945</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3283784439620963</v>
+        <v>0.3134742138919255</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6175</v>
+        <v>6661</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1043832278039164</v>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3023634004723365</v>
+        <v>0.3261680640532214</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -4539,19 +4539,19 @@
         <v>5757</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2378</v>
+        <v>2350</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>11237</v>
+        <v>11946</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1239422033347495</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05119104123558962</v>
+        <v>0.05059691269120535</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2419425822560808</v>
+        <v>0.2572033455282645</v>
       </c>
     </row>
     <row r="19">
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7842</v>
+        <v>6318</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06268244891636725</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3013080857006919</v>
+        <v>0.2427844664951312</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6074</v>
+        <v>6139</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05901296880453225</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2974361861819451</v>
+        <v>0.3006386417576198</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8663</v>
+        <v>9439</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0610690578806365</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1865087777726503</v>
+        <v>0.2032220751785328</v>
       </c>
     </row>
     <row r="20">
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3989</v>
+        <v>3097</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.263836611951089</v>
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>1</v>
+        <v>0.7764536251815269</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -4685,19 +4685,19 @@
         <v>3035</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5988</v>
+        <v>5941</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4360225749511082</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1411592084368316</v>
+        <v>0.1396080290719555</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8602330107204029</v>
+        <v>0.8535204530944482</v>
       </c>
     </row>
     <row r="21">
@@ -4735,7 +4735,7 @@
         <v>2937</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>3989</v>
@@ -4744,7 +4744,7 @@
         <v>0.736163388048911</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0</v>
+        <v>0.2235463748184731</v>
       </c>
       <c r="P21" s="6" t="n">
         <v>1</v>
@@ -4756,7 +4756,7 @@
         <v>4919</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1929</v>
+        <v>1943</v>
       </c>
       <c r="T21" s="5" t="n">
         <v>6961</v>
@@ -4765,7 +4765,7 @@
         <v>0.7067177707086723</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2770447489080041</v>
+        <v>0.2791019158960231</v>
       </c>
       <c r="W21" s="6" t="n">
         <v>1</v>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3043</v>
+        <v>3633</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2444456139784541</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7629245798995742</v>
+        <v>0.9107914457951094</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3961</v>
+        <v>3998</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1400942243305539</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5690966490542778</v>
+        <v>0.5742784296323021</v>
       </c>
     </row>
     <row r="24">
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5385</v>
+        <v>5329</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1889429115159201</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.518404726211638</v>
+        <v>0.5130383222007622</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -4920,19 +4920,19 @@
         <v>3319</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6584</v>
+        <v>6548</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3857538039591265</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1188065460043004</v>
+        <v>0.1170559648872359</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7651450816487428</v>
+        <v>0.7609067781660614</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -4941,19 +4941,19 @@
         <v>5282</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10563</v>
+        <v>9894</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2781156344499136</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1063147132881976</v>
+        <v>0.1053293062621132</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5562315839267663</v>
+        <v>0.5209736992548463</v>
       </c>
     </row>
     <row r="25">
@@ -4970,19 +4970,19 @@
         <v>5624</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2427</v>
+        <v>2389</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9261</v>
+        <v>9259</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5414828391368693</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2336621522701117</v>
+        <v>0.2299969606731824</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8916247677706055</v>
+        <v>0.8913635895412818</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -4991,19 +4991,19 @@
         <v>5534</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2300</v>
+        <v>2143</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7652</v>
+        <v>7633</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6430999866718768</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2672733998255586</v>
+        <v>0.2490403249002237</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8892057861727241</v>
+        <v>0.8870954515069994</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -5012,19 +5012,19 @@
         <v>11158</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6742</v>
+        <v>6171</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15220</v>
+        <v>14992</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5875243850594195</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3550184522826513</v>
+        <v>0.3249380249081663</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8014495186960628</v>
+        <v>0.7894010295878089</v>
       </c>
     </row>
     <row r="26">
@@ -5041,19 +5041,19 @@
         <v>3752</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7529</v>
+        <v>7282</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3612017496256028</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1002364420428434</v>
+        <v>0.0985605931314549</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.724851681103543</v>
+        <v>0.7010958651542031</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -5062,19 +5062,19 @@
         <v>3072</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6273</v>
+        <v>6444</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3570048933860093</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.111506577294416</v>
+        <v>0.1127130602892338</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7289627167328249</v>
+        <v>0.7488775872486304</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -5083,19 +5083,19 @@
         <v>6823</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3184</v>
+        <v>3129</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12099</v>
+        <v>12333</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3593002029479713</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1676608488664346</v>
+        <v>0.1647830271093041</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6371125432147714</v>
+        <v>0.6493915600720158</v>
       </c>
     </row>
     <row r="27">
@@ -5163,19 +5163,19 @@
         <v>21337</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14764</v>
+        <v>15210</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>28028</v>
+        <v>27446</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5292024709061695</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3661765277783209</v>
+        <v>0.3772305576177507</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6951492275104182</v>
+        <v>0.6807108161800028</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -5184,19 +5184,19 @@
         <v>9040</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4448</v>
+        <v>4330</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14800</v>
+        <v>14521</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3205941763532427</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.157737213249018</v>
+        <v>0.1535559482935923</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5248492730894001</v>
+        <v>0.5149660438338812</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>28</v>
@@ -5205,19 +5205,19 @@
         <v>30377</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22531</v>
+        <v>22183</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>39586</v>
+        <v>37905</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4433504230159506</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3288303311593107</v>
+        <v>0.3237597998585326</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5777447129789965</v>
+        <v>0.5532116703974604</v>
       </c>
     </row>
     <row r="29">
@@ -5234,19 +5234,19 @@
         <v>27142</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20932</v>
+        <v>20799</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>32787</v>
+        <v>32440</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6731733645686401</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5191488775959971</v>
+        <v>0.5158571781692611</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8132002531388347</v>
+        <v>0.804571862391839</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -5255,19 +5255,19 @@
         <v>19385</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13299</v>
+        <v>13711</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23902</v>
+        <v>23959</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6874439301758338</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4716417136529544</v>
+        <v>0.4862426437333535</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8476568694175097</v>
+        <v>0.8496576496196663</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>42</v>
@@ -5276,19 +5276,19 @@
         <v>46527</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>37288</v>
+        <v>38380</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>53747</v>
+        <v>53746</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6790463682502769</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5442143400862841</v>
+        <v>0.5601458286164251</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.784427274045017</v>
+        <v>0.7844030978755746</v>
       </c>
     </row>
     <row r="30">
@@ -5305,19 +5305,19 @@
         <v>4119</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9643</v>
+        <v>9686</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1021662052214122</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02847025009671663</v>
+        <v>0.02845475035948635</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2391627864425424</v>
+        <v>0.2402457643824604</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -5326,19 +5326,19 @@
         <v>3208</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>927</v>
+        <v>898</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7927</v>
+        <v>7941</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1137731160295032</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03287123566160612</v>
+        <v>0.03184968702910116</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2811262286737998</v>
+        <v>0.2816236304169979</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -5347,19 +5347,19 @@
         <v>7328</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3031</v>
+        <v>3125</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>14025</v>
+        <v>13733</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1069429906540782</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04423202828013495</v>
+        <v>0.04560468230228641</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2046843013849416</v>
+        <v>0.2004328471658411</v>
       </c>
     </row>
     <row r="31">
@@ -5376,19 +5376,19 @@
         <v>8104</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3828</v>
+        <v>3818</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14441</v>
+        <v>14680</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2010047014935807</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09494427109555989</v>
+        <v>0.09468432470775714</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3581683873287966</v>
+        <v>0.364086046638254</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -5397,19 +5397,19 @@
         <v>4280</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1078</v>
+        <v>1103</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9989</v>
+        <v>9647</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1517847335896026</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03821786075510984</v>
+        <v>0.03910830100123808</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3542355050158671</v>
+        <v>0.3421329283052389</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>12</v>
@@ -5418,19 +5418,19 @@
         <v>12385</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6872</v>
+        <v>6926</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19611</v>
+        <v>18922</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1807483878570428</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1002986172857418</v>
+        <v>0.1010877159285845</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2862122107411271</v>
+        <v>0.2761627317486012</v>
       </c>
     </row>
     <row r="32">
@@ -5451,19 +5451,19 @@
         <v>7110</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2834</v>
+        <v>3341</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12628</v>
+        <v>13542</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2692579042754298</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1073387899880371</v>
+        <v>0.1265083814077198</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4782148629436987</v>
+        <v>0.5128515716183039</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6157</v>
+        <v>6301</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0996276970175179</v>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4570948358389944</v>
+        <v>0.4677805224310538</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -5493,19 +5493,19 @@
         <v>8452</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4195</v>
+        <v>4176</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15227</v>
+        <v>15061</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2119580740094651</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1052127253061773</v>
+        <v>0.1047265976390525</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3818499728338107</v>
+        <v>0.3776897496110244</v>
       </c>
     </row>
     <row r="33">
@@ -5522,19 +5522,19 @@
         <v>10819</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5522</v>
+        <v>5573</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>16965</v>
+        <v>16540</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4097160260021826</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2091044266911376</v>
+        <v>0.211057099822651</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6424733610173106</v>
+        <v>0.626369548048336</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>6</v>
@@ -5543,19 +5543,19 @@
         <v>6747</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3160</v>
+        <v>3194</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>10294</v>
+        <v>10326</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5008816924739954</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2346047264224066</v>
+        <v>0.2370951345261199</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7642276681187316</v>
+        <v>0.7666193125658404</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>15</v>
@@ -5564,19 +5564,19 @@
         <v>17566</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>11030</v>
+        <v>10765</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>24341</v>
+        <v>23778</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.440511114326139</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2766086869122048</v>
+        <v>0.269971346625372</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6104131793950722</v>
+        <v>0.596302105955833</v>
       </c>
     </row>
     <row r="34">
@@ -5593,19 +5593,19 @@
         <v>6905</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2844</v>
+        <v>2861</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13165</v>
+        <v>13027</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2614852898375706</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1076981684213344</v>
+        <v>0.1083311601321675</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4985624282935589</v>
+        <v>0.4933372380761827</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -5614,19 +5614,19 @@
         <v>5381</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2039</v>
+        <v>2088</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8901</v>
+        <v>9842</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3994906105084867</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1513477650805262</v>
+        <v>0.1549970522456709</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6607925036911567</v>
+        <v>0.730646415864896</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>11</v>
@@ -5635,19 +5635,19 @@
         <v>12286</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7017</v>
+        <v>6427</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>19751</v>
+        <v>18673</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3081024671556434</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1759650495330041</v>
+        <v>0.1611860737228943</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4953176010086887</v>
+        <v>0.4682841188888787</v>
       </c>
     </row>
     <row r="35">
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6580</v>
+        <v>7872</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05954077988481696</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2491988712931441</v>
+        <v>0.2981086217971545</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7640</v>
+        <v>8938</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03942834450875248</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1916051268039735</v>
+        <v>0.2241421045979964</v>
       </c>
     </row>
     <row r="36">
@@ -5731,19 +5731,19 @@
         <v>58240</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>47250</v>
+        <v>48049</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>71787</v>
+        <v>71667</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3647133976810025</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2958959896920056</v>
+        <v>0.3008937213192656</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4495511935597863</v>
+        <v>0.448797313038644</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>34</v>
@@ -5752,19 +5752,19 @@
         <v>39488</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>28209</v>
+        <v>29942</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>50858</v>
+        <v>51690</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3400458024741593</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2429139789973114</v>
+        <v>0.2578433312882236</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4379549935852354</v>
+        <v>0.4451216788160562</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>92</v>
@@ -5773,19 +5773,19 @@
         <v>97728</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>80547</v>
+        <v>81319</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>114106</v>
+        <v>113531</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.354327524701081</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2920361017237663</v>
+        <v>0.2948352761696253</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4137089365894571</v>
+        <v>0.4116231887513355</v>
       </c>
     </row>
     <row r="37">
@@ -5802,19 +5802,19 @@
         <v>82704</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>69344</v>
+        <v>70837</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>94686</v>
+        <v>95528</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.517915093555665</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.434252118432943</v>
+        <v>0.4436016590888513</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.592952418997872</v>
+        <v>0.5982211959955898</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>55</v>
@@ -5823,19 +5823,19 @@
         <v>65140</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>53151</v>
+        <v>52865</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>76504</v>
+        <v>76072</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5609425123724595</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4577022590716825</v>
+        <v>0.4552417301709759</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6587974738730985</v>
+        <v>0.6550825714658608</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>136</v>
@@ -5844,19 +5844,19 @@
         <v>147844</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>130786</v>
+        <v>131988</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>166187</v>
+        <v>164616</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5360310591671462</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4741864724804266</v>
+        <v>0.4785434536724951</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6025356556263511</v>
+        <v>0.5968423588087639</v>
       </c>
     </row>
     <row r="38">
@@ -5873,19 +5873,19 @@
         <v>36425</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>26215</v>
+        <v>25938</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>48678</v>
+        <v>49331</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2281053014149002</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1641662239015072</v>
+        <v>0.1624285241887999</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.30483426347349</v>
+        <v>0.3089244845355781</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>27</v>
@@ -5894,19 +5894,19 @@
         <v>30257</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>22603</v>
+        <v>21659</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>42315</v>
+        <v>41665</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2605536215041537</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1946421719066587</v>
+        <v>0.1865110828095554</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3643862360407529</v>
+        <v>0.3587874858519958</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>60</v>
@@ -5915,19 +5915,19 @@
         <v>66682</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>52636</v>
+        <v>51837</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>81991</v>
+        <v>81987</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2417671167654833</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.190838787744294</v>
+        <v>0.1879438834550776</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2972721437866863</v>
+        <v>0.2972554138515522</v>
       </c>
     </row>
     <row r="39">
@@ -5944,19 +5944,19 @@
         <v>17075</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>10141</v>
+        <v>10438</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>25942</v>
+        <v>26707</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1069266918406879</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.06350833870925576</v>
+        <v>0.06536828087019228</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1624571092941199</v>
+        <v>0.1672472178264327</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>9</v>
@@ -5965,19 +5965,19 @@
         <v>9556</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>4315</v>
+        <v>4434</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>17804</v>
+        <v>16516</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.08229093583507152</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.037157305879423</v>
+        <v>0.0381829052693855</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1533160264765593</v>
+        <v>0.1422265675815723</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>25</v>
@@ -5986,19 +5986,19 @@
         <v>26631</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>17878</v>
+        <v>17129</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>38244</v>
+        <v>38671</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.09655422421694124</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.06481844291074078</v>
+        <v>0.06210430274424061</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1386598098097961</v>
+        <v>0.1402062856021956</v>
       </c>
     </row>
     <row r="40">
@@ -6266,16 +6266,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5225</v>
+        <v>5267</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02198288409485943</v>
+        <v>0.02198288409485942</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07105241731020705</v>
+        <v>0.07162174762164628</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -6284,19 +6284,19 @@
         <v>2002</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4922</v>
+        <v>4564</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05537329330448559</v>
+        <v>0.05537329330448561</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01397285557264483</v>
+        <v>0.01398428988012559</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1361321828714315</v>
+        <v>0.1262320582559038</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -6305,19 +6305,19 @@
         <v>3619</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1420</v>
+        <v>1528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7777</v>
+        <v>8358</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03298903247967034</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01294373162708745</v>
+        <v>0.01392993642505622</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0708959816130437</v>
+        <v>0.07619351388209922</v>
       </c>
     </row>
     <row r="5">
@@ -6334,19 +6334,19 @@
         <v>24459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17830</v>
+        <v>18163</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31699</v>
+        <v>31831</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3325983167426529</v>
+        <v>0.3325983167426527</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.24245206885586</v>
+        <v>0.2469782356867851</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4310530438018664</v>
+        <v>0.4328453024222563</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -6355,19 +6355,19 @@
         <v>8685</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5715</v>
+        <v>5354</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12548</v>
+        <v>12539</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2401830274809626</v>
+        <v>0.2401830274809627</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.158046295552271</v>
+        <v>0.1480786371801975</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3470445718712996</v>
+        <v>0.3467828875743332</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -6376,19 +6376,19 @@
         <v>33143</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25847</v>
+        <v>25555</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41599</v>
+        <v>41043</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3021363843879528</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2356203504367697</v>
+        <v>0.232959744694956</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.379213943556856</v>
+        <v>0.3741474813714409</v>
       </c>
     </row>
     <row r="6">
@@ -6452,19 +6452,19 @@
         <v>47463</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40571</v>
+        <v>40492</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54434</v>
+        <v>54097</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6454187991624883</v>
+        <v>0.6454187991624878</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.551693691525892</v>
+        <v>0.5506195467428795</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.740205164576202</v>
+        <v>0.7356173098638704</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -6473,19 +6473,19 @@
         <v>27973</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24462</v>
+        <v>24263</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30847</v>
+        <v>31043</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7736317827577409</v>
+        <v>0.7736317827577412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6765186691832218</v>
+        <v>0.671025917927891</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8531210214399758</v>
+        <v>0.8585504230247681</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -6494,19 +6494,19 @@
         <v>75436</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67389</v>
+        <v>67452</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83101</v>
+        <v>83096</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6876803693471942</v>
+        <v>0.6876803693471943</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6143215789134242</v>
+        <v>0.6148943885344826</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7575461189684995</v>
+        <v>0.7575065760918025</v>
       </c>
     </row>
     <row r="8">
@@ -6527,19 +6527,19 @@
         <v>21707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14498</v>
+        <v>14128</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30394</v>
+        <v>30031</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3337529109448991</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2229182093740009</v>
+        <v>0.2172331568168478</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4673203305481978</v>
+        <v>0.4617490661616457</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -6548,19 +6548,19 @@
         <v>13399</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8920</v>
+        <v>9121</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18028</v>
+        <v>18396</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3176823673559204</v>
+        <v>0.3176823673559203</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2114972667431488</v>
+        <v>0.2162668005358748</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4274441030787182</v>
+        <v>0.436166932882099</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>42</v>
@@ -6569,19 +6569,19 @@
         <v>35105</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27041</v>
+        <v>26426</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>45572</v>
+        <v>44450</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3274309955288947</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2522123371228545</v>
+        <v>0.2464799396402647</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4250524945771146</v>
+        <v>0.4145910738357652</v>
       </c>
     </row>
     <row r="9">
@@ -6598,19 +6598,19 @@
         <v>21794</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13933</v>
+        <v>14879</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29041</v>
+        <v>29665</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3350950125071174</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.214221072072028</v>
+        <v>0.2287740215263623</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4465174437971236</v>
+        <v>0.4561127036379735</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -6619,19 +6619,19 @@
         <v>15574</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10723</v>
+        <v>11115</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20424</v>
+        <v>20886</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3692597532595753</v>
+        <v>0.3692597532595752</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2542377573260187</v>
+        <v>0.2635493045214339</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.484249888745846</v>
+        <v>0.4952064410852334</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>46</v>
@@ -6640,19 +6640,19 @@
         <v>37368</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>28100</v>
+        <v>28799</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>46777</v>
+        <v>47334</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3485349188830834</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.262096320616886</v>
+        <v>0.2686083322800532</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4362913486683085</v>
+        <v>0.4414920013195612</v>
       </c>
     </row>
     <row r="10">
@@ -6685,16 +6685,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3610</v>
+        <v>3595</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.01714215448096177</v>
+        <v>0.01714215448096176</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08559512883805637</v>
+        <v>0.08523109089417122</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3732</v>
+        <v>3665</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006743471375233491</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0348088407246559</v>
+        <v>0.03418316370692277</v>
       </c>
     </row>
     <row r="11">
@@ -6732,19 +6732,19 @@
         <v>52779</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45444</v>
+        <v>44463</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58407</v>
+        <v>58194</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8115071213214173</v>
+        <v>0.8115071213214174</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6987300049132739</v>
+        <v>0.6836512319150652</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8980403570241603</v>
+        <v>0.8947727836941448</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>56</v>
@@ -6753,19 +6753,19 @@
         <v>35983</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31752</v>
+        <v>31651</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39030</v>
+        <v>39144</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8531646970135986</v>
+        <v>0.8531646970135985</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7528541279921822</v>
+        <v>0.7504573193617962</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.925416480554058</v>
+        <v>0.9281031526446694</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>105</v>
@@ -6774,19 +6774,19 @@
         <v>88762</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>80662</v>
+        <v>80804</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>95727</v>
+        <v>95065</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8278945987271215</v>
+        <v>0.8278945987271211</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7523503162216989</v>
+        <v>0.7536719230867051</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8928625095478171</v>
+        <v>0.8866884001706464</v>
       </c>
     </row>
     <row r="12">
@@ -6807,19 +6807,19 @@
         <v>4369</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1871</v>
+        <v>1877</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8345</v>
+        <v>8475</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07852389618844609</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03362052518500076</v>
+        <v>0.03372489719197659</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1499855767309878</v>
+        <v>0.1523131062306503</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -6828,19 +6828,19 @@
         <v>2070</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5327</v>
+        <v>4822</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03617984273383617</v>
+        <v>0.03617984273383616</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01067219263130225</v>
+        <v>0.01083198158952059</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09313432686172445</v>
+        <v>0.08430066050768115</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -6849,19 +6849,19 @@
         <v>6439</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3448</v>
+        <v>3567</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11042</v>
+        <v>11053</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0570591228229086</v>
+        <v>0.05705912282290859</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03055235496154361</v>
+        <v>0.03161153343679232</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09785180187959458</v>
+        <v>0.09795193708493162</v>
       </c>
     </row>
     <row r="13">
@@ -6878,19 +6878,19 @@
         <v>22721</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17188</v>
+        <v>17257</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28784</v>
+        <v>29455</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4083514708477757</v>
+        <v>0.4083514708477758</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3089061734343636</v>
+        <v>0.3101345368288049</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5173017770739164</v>
+        <v>0.529373999899635</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -6899,19 +6899,19 @@
         <v>17882</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13143</v>
+        <v>12881</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23992</v>
+        <v>23309</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3126159060749951</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2297717379887366</v>
+        <v>0.2251876207067047</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4194342062403592</v>
+        <v>0.4074804463497258</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -6920,19 +6920,19 @@
         <v>40604</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33071</v>
+        <v>33367</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48363</v>
+        <v>49647</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3598218183176458</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2930671514966769</v>
+        <v>0.2956926000414494</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4285865813583263</v>
+        <v>0.4399641123961601</v>
       </c>
     </row>
     <row r="14">
@@ -6949,19 +6949,19 @@
         <v>1831</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4944</v>
+        <v>4939</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03290985383495615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0102809336744543</v>
+        <v>0.01002979963520173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08884912930424574</v>
+        <v>0.08876361774968425</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -6983,19 +6983,19 @@
         <v>1831</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5088</v>
+        <v>4981</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01622740384661206</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005083821846326614</v>
+        <v>0.005054692091171417</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04509080320532039</v>
+        <v>0.04414283041196779</v>
       </c>
     </row>
     <row r="15">
@@ -7012,19 +7012,19 @@
         <v>35294</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>29585</v>
+        <v>28898</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>41008</v>
+        <v>40997</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6343117740800662</v>
+        <v>0.6343117740800663</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5317098861567015</v>
+        <v>0.5193562934341185</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7369964838047458</v>
+        <v>0.7367995814544813</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>76</v>
@@ -7033,19 +7033,19 @@
         <v>42575</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>36680</v>
+        <v>37163</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47162</v>
+        <v>46973</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.7442920057615823</v>
+        <v>0.7442920057615821</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6412446398186236</v>
+        <v>0.6496860292295167</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8244788072358628</v>
+        <v>0.8211751001525071</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>126</v>
@@ -7054,19 +7054,19 @@
         <v>77869</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>70398</v>
+        <v>68328</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>85214</v>
+        <v>84906</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.690062240913941</v>
+        <v>0.6900622409139409</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.62385068463541</v>
+        <v>0.6055066342547438</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7551528586796247</v>
+        <v>0.7524214755086766</v>
       </c>
     </row>
     <row r="16">
@@ -7087,19 +7087,19 @@
         <v>2210</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>259</v>
+        <v>569</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5811</v>
+        <v>6249</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03730320412555113</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004367471361224754</v>
+        <v>0.009599028832300023</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09807337646439229</v>
+        <v>0.1054669451430805</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -7108,19 +7108,19 @@
         <v>2000</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5161</v>
+        <v>4934</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03143364183827022</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008156170922237615</v>
+        <v>0.008165932093174552</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08110012170825415</v>
+        <v>0.07752790183991791</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -7129,19 +7129,19 @@
         <v>4211</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1820</v>
+        <v>1876</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8669</v>
+        <v>8988</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03426361507549475</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01481092820853952</v>
+        <v>0.01526353712298297</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07054542287874077</v>
+        <v>0.07313761815307936</v>
       </c>
     </row>
     <row r="17">
@@ -7158,19 +7158,19 @@
         <v>28600</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21164</v>
+        <v>22017</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35010</v>
+        <v>36574</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4826937265486435</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3572020010142109</v>
+        <v>0.3715868545189679</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5908942290371604</v>
+        <v>0.617290996869403</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>66</v>
@@ -7179,19 +7179,19 @@
         <v>32377</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27073</v>
+        <v>26494</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38126</v>
+        <v>37649</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5087612062523673</v>
+        <v>0.5087612062523672</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4254173306638993</v>
+        <v>0.4163171858865236</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5990948511099503</v>
+        <v>0.5916006125245763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>100</v>
@@ -7200,19 +7200,19 @@
         <v>60977</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51714</v>
+        <v>52308</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>69904</v>
+        <v>70543</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.496192931769057</v>
+        <v>0.4961929317690572</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4208202438434672</v>
+        <v>0.4256536418827276</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5688362680397381</v>
+        <v>0.5740351242933051</v>
       </c>
     </row>
     <row r="18">
@@ -7276,19 +7276,19 @@
         <v>35407</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28314</v>
+        <v>27736</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41633</v>
+        <v>41859</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5975882147265611</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4778696430054065</v>
+        <v>0.4681126735888083</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7026628845865532</v>
+        <v>0.7064740213102104</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -7297,19 +7297,19 @@
         <v>32369</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26895</v>
+        <v>26867</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38200</v>
+        <v>37798</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5086397207310391</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4226251884479496</v>
+        <v>0.422176025858689</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.600262758394434</v>
+        <v>0.5939363661162679</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -7318,19 +7318,19 @@
         <v>67776</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59105</v>
+        <v>58317</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76595</v>
+        <v>76733</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5515256882322657</v>
+        <v>0.5515256882322658</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4809665004137295</v>
+        <v>0.4745483202199349</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6232831360329811</v>
+        <v>0.6244128664718079</v>
       </c>
     </row>
     <row r="20">
@@ -7351,19 +7351,19 @@
         <v>1695</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4262</v>
+        <v>4299</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.125347033091646</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03649871189397561</v>
+        <v>0.03583343744995778</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3152415914454132</v>
+        <v>0.3180195727630628</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -7372,19 +7372,19 @@
         <v>1547</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3451</v>
+        <v>3489</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1049413488977646</v>
+        <v>0.1049413488977647</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02643967810882583</v>
+        <v>0.02621881966804249</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2340147621362543</v>
+        <v>0.2366045907842844</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -7393,19 +7393,19 @@
         <v>3242</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1549</v>
+        <v>1353</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6702</v>
+        <v>6472</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1147018617268879</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05480839990683336</v>
+        <v>0.04787708113760844</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2371391124920399</v>
+        <v>0.2289831789079656</v>
       </c>
     </row>
     <row r="21">
@@ -7422,19 +7422,19 @@
         <v>9888</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6994</v>
+        <v>7057</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11866</v>
+        <v>12180</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7314302906428594</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5173322685584242</v>
+        <v>0.5220331074430662</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8777204746823132</v>
+        <v>0.9009465459581885</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -7443,19 +7443,19 @@
         <v>7222</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4895</v>
+        <v>4972</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9471</v>
+        <v>9465</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4897891486297256</v>
+        <v>0.4897891486297258</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3319960064192606</v>
+        <v>0.3372251925799566</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6423223577807956</v>
+        <v>0.6419010476799651</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>37</v>
@@ -7464,19 +7464,19 @@
         <v>17110</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13571</v>
+        <v>13573</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20315</v>
+        <v>20346</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.6053717208313676</v>
+        <v>0.6053717208313674</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4801683242895671</v>
+        <v>0.4802236443732016</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7187731041955171</v>
+        <v>0.7198386154254842</v>
       </c>
     </row>
     <row r="22">
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2675</v>
+        <v>2621</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0384504750669896</v>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1978465264562515</v>
+        <v>0.1938786434480452</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2122</v>
+        <v>2167</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02932413993598196</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1439120903531617</v>
+        <v>0.1469751904547687</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2871</v>
+        <v>3274</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03368947805857177</v>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1015946511888872</v>
+        <v>0.1158411527406168</v>
       </c>
     </row>
     <row r="23">
@@ -7564,19 +7564,19 @@
         <v>4429</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7210</v>
+        <v>7184</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3276111099079596</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1590270257119894</v>
+        <v>0.1589692674305653</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5333169495989095</v>
+        <v>0.5314239456804108</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>22</v>
@@ -7585,19 +7585,19 @@
         <v>8306</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6022</v>
+        <v>5915</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10694</v>
+        <v>10443</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5632953922008692</v>
+        <v>0.5632953922008694</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4083984142612428</v>
+        <v>0.4011484125040442</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.725256803607441</v>
+        <v>0.7082071429244545</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>30</v>
@@ -7606,19 +7606,19 @@
         <v>12735</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9373</v>
+        <v>9067</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>15988</v>
+        <v>16285</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4505621243973603</v>
+        <v>0.4505621243973601</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3316379217103611</v>
+        <v>0.3207909331715905</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5656698743278166</v>
+        <v>0.5761881833223454</v>
       </c>
     </row>
     <row r="24">
@@ -7639,19 +7639,19 @@
         <v>5904</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2837</v>
+        <v>2798</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9863</v>
+        <v>10197</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1560439834885769</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07496892903867991</v>
+        <v>0.07393738801052267</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2606772575124145</v>
+        <v>0.2694918501844897</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -7660,19 +7660,19 @@
         <v>2897</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1249</v>
+        <v>1035</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5769</v>
+        <v>5952</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.09336547129918894</v>
+        <v>0.09336547129918896</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04024668660807439</v>
+        <v>0.03334298212196844</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1859147852521745</v>
+        <v>0.1918256159285672</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -7681,19 +7681,19 @@
         <v>8801</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5596</v>
+        <v>5083</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>14328</v>
+        <v>13773</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1278027982613473</v>
+        <v>0.1278027982613474</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08126630857413951</v>
+        <v>0.07381489245151407</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2080576032148027</v>
+        <v>0.1999925560979897</v>
       </c>
     </row>
     <row r="25">
@@ -7710,19 +7710,19 @@
         <v>16483</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12022</v>
+        <v>11798</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21313</v>
+        <v>21182</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4356382462044528</v>
+        <v>0.4356382462044529</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.317741850519291</v>
+        <v>0.3118003075238843</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5632886174102399</v>
+        <v>0.5598275325259866</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -7731,19 +7731,19 @@
         <v>6916</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3888</v>
+        <v>4173</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10157</v>
+        <v>10674</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2228863175478329</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1252958821960407</v>
+        <v>0.1344908756740121</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.327350384637779</v>
+        <v>0.344004926791742</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -7752,19 +7752,19 @@
         <v>23399</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17659</v>
+        <v>17885</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>29426</v>
+        <v>29766</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3397781752683846</v>
+        <v>0.3397781752683848</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2564193344725768</v>
+        <v>0.2597127922478419</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4272877736646415</v>
+        <v>0.4322362350393115</v>
       </c>
     </row>
     <row r="26">
@@ -7797,16 +7797,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1914</v>
+        <v>1547</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.01208706176802006</v>
+        <v>0.01208706176802007</v>
       </c>
       <c r="O26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06169373561085854</v>
+        <v>0.04987155049715743</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -7818,16 +7818,16 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2134</v>
+        <v>1903</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.005446092102700132</v>
+        <v>0.005446092102700134</v>
       </c>
       <c r="V26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03099118517500028</v>
+        <v>0.02763785538445663</v>
       </c>
     </row>
     <row r="27">
@@ -7844,19 +7844,19 @@
         <v>22450</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17501</v>
+        <v>17487</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>27211</v>
+        <v>26739</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5933460758241129</v>
+        <v>0.593346075824113</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4625467823698966</v>
+        <v>0.4621564193528908</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7191527891765813</v>
+        <v>0.7066791160673136</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>51</v>
@@ -7865,19 +7865,19 @@
         <v>25103</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>21759</v>
+        <v>21509</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>28035</v>
+        <v>27568</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.8090117804749148</v>
+        <v>0.809011780474915</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.701244107137845</v>
+        <v>0.6932004151613513</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9035011343558855</v>
+        <v>0.8884639996022099</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>87</v>
@@ -7886,19 +7886,19 @@
         <v>47553</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>41735</v>
+        <v>41891</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>52766</v>
+        <v>52888</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.6905190127598348</v>
+        <v>0.6905190127598352</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6060359562613273</v>
+        <v>0.608301947575182</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7662118238509261</v>
+        <v>0.7679906828007339</v>
       </c>
     </row>
     <row r="28">
@@ -7919,19 +7919,19 @@
         <v>26256</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18161</v>
+        <v>18730</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>35462</v>
+        <v>36811</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2159946633192156</v>
+        <v>0.2159946633192155</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1494024252514964</v>
+        <v>0.1540823160540102</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2917277843926322</v>
+        <v>0.3028252791143862</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -7940,19 +7940,19 @@
         <v>12911</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8218</v>
+        <v>8037</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19726</v>
+        <v>19140</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09581515121591859</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06098564886154005</v>
+        <v>0.05964192318200903</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1463845974635885</v>
+        <v>0.1420363532751815</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>46</v>
@@ -7961,19 +7961,19 @@
         <v>39168</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>30516</v>
+        <v>29765</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>50346</v>
+        <v>50302</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1528118167596874</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1190574796483485</v>
+        <v>0.1161297386027013</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1964253673902907</v>
+        <v>0.1962528175464084</v>
       </c>
     </row>
     <row r="29">
@@ -7990,19 +7990,19 @@
         <v>58105</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>48109</v>
+        <v>46934</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>68752</v>
+        <v>69445</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4779991925178345</v>
+        <v>0.4779991925178344</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3957641628579729</v>
+        <v>0.3861035469118176</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5655873967309007</v>
+        <v>0.5712864286054403</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>67</v>
@@ -8011,19 +8011,19 @@
         <v>46477</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>37565</v>
+        <v>37602</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>56535</v>
+        <v>55189</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3449024460832879</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.278771449814968</v>
+        <v>0.2790410970165692</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4195480038844281</v>
+        <v>0.4095578969295903</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>127</v>
@@ -8032,19 +8032,19 @@
         <v>104582</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>91101</v>
+        <v>91516</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>118447</v>
+        <v>119214</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4080252746646958</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3554317620989408</v>
+        <v>0.3570482592589289</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4621194407683589</v>
+        <v>0.4651116788146977</v>
       </c>
     </row>
     <row r="30">
@@ -8064,16 +8064,16 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5606</v>
+        <v>5657</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.009248106790796726</v>
+        <v>0.009248106790796722</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04611573169059287</v>
+        <v>0.04654118234126515</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3975</v>
+        <v>3314</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.004895553125564571</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02949974008191413</v>
+        <v>0.02459401573374944</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -8106,16 +8106,16 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6511</v>
+        <v>6324</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.006959807183322027</v>
+        <v>0.006959807183322026</v>
       </c>
       <c r="V30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02540215817102012</v>
+        <v>0.02467336876503295</v>
       </c>
     </row>
     <row r="31">
@@ -8132,19 +8132,19 @@
         <v>52865</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>42221</v>
+        <v>42300</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>63489</v>
+        <v>63791</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.4348886468513532</v>
+        <v>0.4348886468513531</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3473315994370696</v>
+        <v>0.3479772071762379</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5222887896577865</v>
+        <v>0.5247754353895326</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>129</v>
@@ -8153,19 +8153,19 @@
         <v>88328</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>79003</v>
+        <v>79613</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>96583</v>
+        <v>97286</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.6554787677634676</v>
+        <v>0.6554787677634675</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5862828519771083</v>
+        <v>0.5908093719148275</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7167385181174186</v>
+        <v>0.7219597731313514</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>184</v>
@@ -8174,19 +8174,19 @@
         <v>141192</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>125501</v>
+        <v>126434</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>154112</v>
+        <v>154875</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5508610910576358</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4896410958237524</v>
+        <v>0.4932799575848324</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6012684042078718</v>
+        <v>0.6042431895748653</v>
       </c>
     </row>
     <row r="32">
@@ -8207,19 +8207,19 @@
         <v>12390</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7165</v>
+        <v>7243</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18810</v>
+        <v>18537</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08575037050713394</v>
+        <v>0.08575037050713392</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04958955290845537</v>
+        <v>0.05012991725844418</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1301874389649488</v>
+        <v>0.1282963833285694</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>39</v>
@@ -8228,19 +8228,19 @@
         <v>25250</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18227</v>
+        <v>18933</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>32671</v>
+        <v>32902</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1699642053827279</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1226882329489852</v>
+        <v>0.1274390853207409</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2199129055218959</v>
+        <v>0.221465317483402</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>54</v>
@@ -8249,19 +8249,19 @@
         <v>37640</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>28486</v>
+        <v>28721</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>48493</v>
+        <v>47725</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1284429558946154</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09720350617963273</v>
+        <v>0.09800754043000702</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1654769749734514</v>
+        <v>0.1628561135561021</v>
       </c>
     </row>
     <row r="33">
@@ -8278,19 +8278,19 @@
         <v>65352</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>54264</v>
+        <v>55524</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>75722</v>
+        <v>75796</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4523061452419038</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3755655944582588</v>
+        <v>0.3842864320914118</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5240782882119731</v>
+        <v>0.5245862235497361</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>91</v>
@@ -8299,19 +8299,19 @@
         <v>57052</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>47908</v>
+        <v>47348</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>66255</v>
+        <v>65694</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3840285317494074</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3224753454798212</v>
+        <v>0.318708631130499</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4459728748273647</v>
+        <v>0.4421956071508455</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>176</v>
@@ -8320,19 +8320,19 @@
         <v>122405</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>109607</v>
+        <v>108824</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>136175</v>
+        <v>136538</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4176924995340696</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3740200032986087</v>
+        <v>0.3713476680903668</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4646816168734663</v>
+        <v>0.4659197726843503</v>
       </c>
     </row>
     <row r="34">
@@ -8396,19 +8396,19 @@
         <v>115554</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>106355</v>
+        <v>106852</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>124021</v>
+        <v>123428</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7997570467772441</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.7360837305932975</v>
+        <v>0.7395295778264296</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.858357191874319</v>
+        <v>0.8542484013300162</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>177</v>
@@ -8417,19 +8417,19 @@
         <v>112265</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>103690</v>
+        <v>103567</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>120578</v>
+        <v>120005</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.7556711355550313</v>
+        <v>0.7556711355550312</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.6979508223542266</v>
+        <v>0.6971270565923465</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.8116259613352118</v>
+        <v>0.8077717397361741</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>332</v>
@@ -8438,19 +8438,19 @@
         <v>227820</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>215296</v>
+        <v>214489</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>239484</v>
+        <v>239175</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.7774074942123992</v>
+        <v>0.7774074942123993</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.7346713523681233</v>
+        <v>0.7319182955903573</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.8172087766155613</v>
+        <v>0.8161553968716626</v>
       </c>
     </row>
     <row r="36">
@@ -8471,19 +8471,19 @@
         <v>76147</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>62006</v>
+        <v>62191</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>92223</v>
+        <v>92979</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1333879920354694</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.108616797543558</v>
+        <v>0.1089408782654963</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1615474696742403</v>
+        <v>0.1628728495461548</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>101</v>
@@ -8492,19 +8492,19 @@
         <v>62077</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>51315</v>
+        <v>51240</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>74737</v>
+        <v>73334</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1175110535443716</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09713917287599012</v>
+        <v>0.09699602114165572</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1414757185727755</v>
+        <v>0.1388200890347921</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>188</v>
@@ -8513,19 +8513,19 @@
         <v>138224</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>120799</v>
+        <v>119734</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>158270</v>
+        <v>158406</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1257572380075109</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1099031108998274</v>
+        <v>0.1089342563724473</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1439951043049849</v>
+        <v>0.1441188683441796</v>
       </c>
     </row>
     <row r="37">
@@ -8542,19 +8542,19 @@
         <v>247403</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>225234</v>
+        <v>226166</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>268196</v>
+        <v>270498</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4333783030647581</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3945444742094213</v>
+        <v>0.3961772401011128</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4698015393320824</v>
+        <v>0.4738341152853153</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>332</v>
@@ -8563,19 +8563,19 @@
         <v>192185</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>174527</v>
+        <v>174602</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>210294</v>
+        <v>207797</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3638033980577172</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3303772610531127</v>
+        <v>0.3305191409810497</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3980833799104601</v>
+        <v>0.3933575329040588</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>644</v>
@@ -8584,19 +8584,19 @@
         <v>439588</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>411975</v>
+        <v>413734</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>466318</v>
+        <v>467833</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3999393005187075</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3748171074129124</v>
+        <v>0.3764173434622524</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4242581768479508</v>
+        <v>0.4256363689547534</v>
       </c>
     </row>
     <row r="38">
@@ -8613,19 +8613,19 @@
         <v>3475</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1215</v>
+        <v>1179</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8832</v>
+        <v>8756</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.006087519537566367</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.002127586739985627</v>
+        <v>0.002065606693984821</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01547192607764589</v>
+        <v>0.01533868323371247</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>4</v>
@@ -8634,19 +8634,19 @@
         <v>2190</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>495</v>
+        <v>731</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>5627</v>
+        <v>5506</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.004145852519126754</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0009378360470028811</v>
+        <v>0.001384139975969613</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01065133897816195</v>
+        <v>0.01042322719106568</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>9</v>
@@ -8655,19 +8655,19 @@
         <v>5665</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2736</v>
+        <v>2714</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>11051</v>
+        <v>10568</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.005154317999359252</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.002489087053507432</v>
+        <v>0.002468882456616387</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01005435383558533</v>
+        <v>0.00961512964777651</v>
       </c>
     </row>
     <row r="39">
@@ -8684,19 +8684,19 @@
         <v>366242</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>347305</v>
+        <v>345801</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>385653</v>
+        <v>387640</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.6415495852534819</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6083765060977885</v>
+        <v>0.6057431317623412</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6755513817084396</v>
+        <v>0.6790323291057185</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>626</v>
@@ -8705,19 +8705,19 @@
         <v>372902</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>355934</v>
+        <v>356125</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>388856</v>
+        <v>388024</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.7058988816476025</v>
+        <v>0.7058988816476026</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.6737786560590471</v>
+        <v>0.6741386403359227</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.7360994463435225</v>
+        <v>0.7345240439931018</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1082</v>
@@ -8726,19 +8726,19 @@
         <v>739144</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>711142</v>
+        <v>712790</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>764044</v>
+        <v>765618</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.6724770624198796</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.6470004662734906</v>
+        <v>0.6484998118830496</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6951310442345715</v>
+        <v>0.6965629419224536</v>
       </c>
     </row>
     <row r="40">
